--- a/config/default/forms/app/contact_follow_up.xlsx
+++ b/config/default/forms/app/contact_follow_up.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="257">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -492,45 +492,27 @@
     <t xml:space="preserve">group_follow_up</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact details</t>
+    <t xml:space="preserve">Tracing details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one select_follow_up_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow_up_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you following up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(.,'phone') and ${phone} = '')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's no registered phone number</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">n_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Name:** ${name}  **Date of birth:** ${date_of_birth} **Phone number:** ${phone}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_last_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Date of last contact:** ${date_of_last_contact}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must not be in the future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one select_follow_up_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow_up_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you following up?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(.,'phone') and ${phone} = '')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There's no registered phone number</t>
-  </si>
-  <si>
     <t xml:space="preserve">call_button</t>
   </si>
   <si>
@@ -597,12 +579,6 @@
     <t xml:space="preserve">${status_call} = 'responded' or ${status_visit}= 'available'</t>
   </si>
   <si>
-    <t xml:space="preserve">health_care_worker_handed_to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Care Worker handed to</t>
-  </si>
-  <si>
     <t xml:space="preserve">unique_patient_number</t>
   </si>
   <si>
@@ -717,7 +693,7 @@
     <t xml:space="preserve">responded</t>
   </si>
   <si>
-    <t xml:space="preserve">Contacted and linked</t>
+    <t xml:space="preserve">Contacted and already on ART</t>
   </si>
   <si>
     <t xml:space="preserve">responded_not_linked</t>
@@ -826,14 +802,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -975,6 +950,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1082,7 +1063,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1159,14 +1140,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1183,20 +1156,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1239,11 +1208,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1689,32 +1662,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL92"/>
+  <dimension ref="A1:AL89"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.6851063829787"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.6255319148936"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.6170212765957"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0425531914894"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.7829787234043"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0425531914894"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2042553191489"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0425531914894"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.7872340425532"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.5574468085106"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0425531914894"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="74.4595744680851"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.5446808510638"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0425531914894"/>
-    <col collapsed="false" hidden="false" max="38" min="15" style="0" width="11.0340425531915"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="11.7829787234043"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.7148936170213"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9787234042553"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9446808510638"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.0170212765957"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.4340425531915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0170212765957"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.7829787234043"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.0170212765957"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8170212765957"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.2851063829787"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.0170212765957"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="77.6127659574468"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.6723404255319"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.0170212765957"/>
+    <col collapsed="false" hidden="false" max="38" min="15" style="0" width="11.331914893617"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="12.2340425531915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4721,7 +4694,7 @@
       </c>
       <c r="I70" s="13" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
+        <v>2020-08-25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4758,599 +4731,518 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" s="20" customFormat="true" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+    <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="19"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="G73" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
+      <c r="M73" s="22"/>
       <c r="N73" s="19"/>
-    </row>
-    <row r="74" s="26" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="22" t="s">
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="U73" s="23"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="19"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="U74" s="23"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="19"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="U75" s="23"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21" t="s">
+      <c r="E76" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="19"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="U76" s="23"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="19"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="U77" s="23"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="19"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="U78" s="23"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="19"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="U79" s="23"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="19"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="U80" s="23"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="19"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="U81" s="23"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H74" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="25" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
-      </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="21"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="U74" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="21"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="U75" s="27"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="21"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="U76" s="27"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="22" t="s">
+      <c r="B82" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="21"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="U77" s="27"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="21"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="U78" s="27"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="21"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="U79" s="27"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="21"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="U80" s="27"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="21"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="U81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="22" t="s">
+      <c r="B83" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="28" t="s">
+      <c r="C83" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="21"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="U82" s="27"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="22" t="s">
+      <c r="D83" s="20"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="19"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="U83" s="23"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C84" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="21"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="U83" s="27"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" s="22" t="s">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" s="25" customFormat="true" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C85" s="20"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="19"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="U85" s="23"/>
+    </row>
+    <row r="86" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="21"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="U84" s="27"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="C87" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="21"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="U86" s="27"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-    </row>
-    <row r="88" s="26" customFormat="true" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="21"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="U88" s="27"/>
-    </row>
-    <row r="89" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="s">
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A85">
+  <conditionalFormatting sqref="A82">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
+  <conditionalFormatting sqref="I84">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND($I87 = "", $A87 = "calculate")</formula>
+      <formula>AND($I84 = "", $A84 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C84">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $C84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B84">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $B87 = "")</formula>
+      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A84">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H84">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND(NOT($G87 = ""), $H87 = "")</formula>
+      <formula>AND(NOT($G84 = ""), $H84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($E87 = "", $A87 = "calculate")</formula>
+      <formula>AND($E84 = "", $A84 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $E87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", $G87 = "", $H87 = "", $E87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E84">
     <cfRule type="containsText" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:Y13">
@@ -5395,7 +5287,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>COUNTIF($B$2:$B$1055,B13)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1052,B13)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:Y13">
@@ -5412,11 +5304,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D11:D13 D85 D87" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D11:D13 D82 D84" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D90:D92" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D87:D89" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5438,512 +5330,512 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="35.8042553191489"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="11.0340425531915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="29.8723404255319"/>
-    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.0340425531915"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7829787234043"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.2297872340426"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="11.331914893617"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="31.0765957446808"/>
+    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.331914893617"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.2340425531915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="36" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="C6" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="B7" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="B20" s="20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="22" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" s="22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" s="22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" s="22" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" s="22" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="C18" s="22" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="C19" s="22" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="22" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="22" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="C27" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="22" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5970,89 +5862,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1702127659574"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3957446808511"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8808510638298"/>
-    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.0340425531915"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7829787234043"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1446808510638"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3702127659574"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.4553191489362"/>
+    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.331914893617"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.2340425531915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="A1" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>262</v>
+      <c r="A2" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-24</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
+        <v>2020-08-25</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/config/default/forms/app/contact_follow_up.xlsx
+++ b/config/default/forms/app/contact_follow_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="229">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -198,48 +198,6 @@
     <t xml:space="preserve">Type of contact</t>
   </si>
   <si>
-    <t xml:space="preserve">case_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_of_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relation_to_case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relation to Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">national_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National ID Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passport_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passport Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alien_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alien Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">s_name</t>
   </si>
   <si>
@@ -283,60 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Marital Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head_of_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head of household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_last_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of last contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_care_worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the contact a health care worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If contact is health worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of death</t>
   </si>
   <si>
     <t xml:space="preserve">nationality</t>
@@ -612,7 +516,13 @@
     <t xml:space="preserve">created_by</t>
   </si>
   <si>
-    <t xml:space="preserve">../../inputs/user/username</t>
+    <t xml:space="preserve">../inputs/user/username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/name</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -679,6 +589,12 @@
   </si>
   <si>
     <t xml:space="preserve">Person not found in their usual place of residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deceased</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
@@ -808,7 +724,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -950,12 +866,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1063,7 +973,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1208,15 +1118,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1662,32 +1568,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL89"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I72" activeCellId="0" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.7148936170213"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9787234042553"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9446808510638"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.0170212765957"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.4340425531915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0170212765957"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.7829787234043"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.0170212765957"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8170212765957"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.2851063829787"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.0170212765957"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="77.6127659574468"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.6723404255319"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.0170212765957"/>
-    <col collapsed="false" hidden="false" max="38" min="15" style="0" width="11.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="12.2340425531915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6893617021277"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.7276595744681"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.1446808510638"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.468085106383"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.331914893617"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.468085106383"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.6085106382979"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.468085106383"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.9404255319149"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.2595744680851"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.468085106383"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="79.2638297872341"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.2723404255319"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.468085106383"/>
+    <col collapsed="false" hidden="false" max="38" min="15" style="0" width="11.4851063829787"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="12.4595744680851"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,7 +2276,7 @@
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2378,9 +2284,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2511,10 +2415,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2557,10 +2461,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2603,10 +2507,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2649,10 +2553,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2695,10 +2599,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2741,10 +2645,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2787,10 +2691,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2833,7 +2737,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>78</v>
@@ -2881,7 +2785,7 @@
       <c r="B30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="7"/>
@@ -2927,7 +2831,7 @@
       <c r="B31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="7"/>
@@ -2973,7 +2877,7 @@
       <c r="B32" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="7"/>
@@ -3019,7 +2923,7 @@
       <c r="B33" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="7"/>
@@ -3065,7 +2969,7 @@
       <c r="B34" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="7"/>
@@ -3111,7 +3015,7 @@
       <c r="B35" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="7"/>
@@ -3157,7 +3061,7 @@
       <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="7"/>
@@ -3203,7 +3107,7 @@
       <c r="B37" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="7"/>
@@ -3334,14 +3238,14 @@
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="7"/>
@@ -3380,14 +3284,14 @@
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="7"/>
@@ -3426,14 +3330,14 @@
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>104</v>
       </c>
       <c r="D42" s="7"/>
@@ -3472,14 +3376,14 @@
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="7"/>
@@ -3518,15 +3422,15 @@
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>108</v>
+      <c r="C44" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -3564,15 +3468,15 @@
       <c r="AK44" s="8"/>
       <c r="AL44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -3610,16 +3514,14 @@
       <c r="AK45" s="8"/>
       <c r="AL45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C46" s="11"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -3656,16 +3558,12 @@
       <c r="AK46" s="8"/>
       <c r="AL46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3702,1547 +3600,863 @@
       <c r="AK47" s="8"/>
       <c r="AL47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+    </row>
+    <row r="54" s="13" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="13" t="str">
+        <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
+        <v>2020-08-26</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="B55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="17"/>
+      <c r="L55" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="19"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="U57" s="23"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="19"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="U58" s="23"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="19"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="U59" s="23"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="19"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="U60" s="23"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="19"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="U61" s="23"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="19"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="U62" s="23"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="19"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="U63" s="23"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="19"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="U64" s="23"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="19"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="U65" s="23"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="19"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="U67" s="23"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" s="25" customFormat="true" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="B69" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="19"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="U69" s="23"/>
+    </row>
+    <row r="70" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="8"/>
-      <c r="AJ51" s="8"/>
-      <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
-      <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AJ53" s="8"/>
-      <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
-      <c r="AI54" s="8"/>
-      <c r="AJ54" s="8"/>
-      <c r="AK54" s="8"/>
-      <c r="AL54" s="8"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="8"/>
-      <c r="AI56" s="8"/>
-      <c r="AJ56" s="8"/>
-      <c r="AK56" s="8"/>
-      <c r="AL56" s="8"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="8"/>
-      <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="8"/>
-      <c r="AE58" s="8"/>
-      <c r="AF58" s="8"/>
-      <c r="AG58" s="8"/>
-      <c r="AH58" s="8"/>
-      <c r="AI58" s="8"/>
-      <c r="AJ58" s="8"/>
-      <c r="AK58" s="8"/>
-      <c r="AL58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
-      <c r="AD59" s="8"/>
-      <c r="AE59" s="8"/>
-      <c r="AF59" s="8"/>
-      <c r="AG59" s="8"/>
-      <c r="AH59" s="8"/>
-      <c r="AI59" s="8"/>
-      <c r="AJ59" s="8"/>
-      <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="8"/>
-      <c r="AD60" s="8"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="8"/>
-      <c r="AJ60" s="8"/>
-      <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="8"/>
-      <c r="AD61" s="8"/>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="8"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
-      <c r="AI61" s="8"/>
-      <c r="AJ61" s="8"/>
-      <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="8"/>
-      <c r="AD62" s="8"/>
-      <c r="AE62" s="8"/>
-      <c r="AF62" s="8"/>
-      <c r="AG62" s="8"/>
-      <c r="AH62" s="8"/>
-      <c r="AI62" s="8"/>
-      <c r="AJ62" s="8"/>
-      <c r="AK62" s="8"/>
-      <c r="AL62" s="8"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
-      <c r="AF63" s="8"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
-      <c r="AI63" s="8"/>
-      <c r="AJ63" s="8"/>
-      <c r="AK63" s="8"/>
-      <c r="AL63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="13"/>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="13"/>
-      <c r="AI66" s="13"/>
-      <c r="AJ66" s="13"/>
-      <c r="AK66" s="13"/>
-      <c r="AL66" s="13"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="13"/>
-      <c r="AF67" s="13"/>
-      <c r="AG67" s="13"/>
-      <c r="AH67" s="13"/>
-      <c r="AI67" s="13"/>
-      <c r="AJ67" s="13"/>
-      <c r="AK67" s="13"/>
-      <c r="AL67" s="13"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
-      <c r="AC68" s="13"/>
-      <c r="AD68" s="13"/>
-      <c r="AE68" s="13"/>
-      <c r="AF68" s="13"/>
-      <c r="AG68" s="13"/>
-      <c r="AH68" s="13"/>
-      <c r="AI68" s="13"/>
-      <c r="AJ68" s="13"/>
-      <c r="AK68" s="13"/>
-      <c r="AL68" s="13"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="13"/>
-      <c r="AE69" s="13"/>
-      <c r="AF69" s="13"/>
-      <c r="AG69" s="13"/>
-      <c r="AH69" s="13"/>
-      <c r="AI69" s="13"/>
-      <c r="AJ69" s="13"/>
-      <c r="AK69" s="13"/>
-      <c r="AL69" s="13"/>
-    </row>
-    <row r="70" s="13" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="13" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-25</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="17"/>
-      <c r="L71" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="19"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="U73" s="23"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="24" t="s">
+      <c r="B74" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="19"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="U74" s="23"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="20" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="19"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="U75" s="23"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="19"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="U76" s="23"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="19"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="U77" s="23"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="19"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="U78" s="23"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="19"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="23"/>
-      <c r="U79" s="23"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="19"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="U80" s="23"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="19"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="U81" s="23"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="19"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="U83" s="23"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-    </row>
-    <row r="85" s="25" customFormat="true" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="19"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="U85" s="23"/>
-    </row>
-    <row r="86" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A66">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E66">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+  <conditionalFormatting sqref="I68">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND($I84 = "", $A84 = "calculate")</formula>
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
+  <conditionalFormatting sqref="C68">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $C84 = "")</formula>
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
+  <conditionalFormatting sqref="B68">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>AND(AND(NOT($A84 = "end group"), NOT($A84 = "end repeat"), NOT($A84 = "")), $B84 = "")</formula>
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A68">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H68">
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND(NOT($G84 = ""), $H84 = "")</formula>
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>AND($E84 = "", $A84 = "calculate")</formula>
+      <formula>AND($E68 = "", $A68 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND($A84="end repeat", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $E68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A84="end group", $B84 = "", $C84 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $E84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $E68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E68">
     <cfRule type="containsText" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:Y13">
@@ -5287,7 +4501,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
     <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>COUNTIF($B$2:$B$1052,B13)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1036,B13)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:Y13">
@@ -5304,11 +4518,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D11:D13 D82 D84" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D11:D13 D66 D68" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D87:D89" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3:D7 D71:D73" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5336,71 +4550,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.2297872340426"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="11.331914893617"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="31.0765957446808"/>
-    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.2340425531915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.9787234042553"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="20" width="11.4851063829787"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="31.6765957446808"/>
+    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.4851063829787"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.4595744680851"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B6" s="20" t="n">
         <v>1</v>
@@ -5411,7 +4625,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B7" s="20" t="n">
         <v>2</v>
@@ -5422,7 +4636,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B8" s="20" t="n">
         <v>3</v>
@@ -5433,7 +4647,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B9" s="20" t="n">
         <v>4</v>
@@ -5444,7 +4658,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B10" s="20" t="n">
         <v>5</v>
@@ -5455,7 +4669,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B11" s="20" t="n">
         <v>6</v>
@@ -5466,7 +4680,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B12" s="20" t="n">
         <v>7</v>
@@ -5477,7 +4691,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B13" s="20" t="n">
         <v>8</v>
@@ -5488,7 +4702,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B14" s="20" t="n">
         <v>9</v>
@@ -5499,7 +4713,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B15" s="20" t="n">
         <v>10</v>
@@ -5510,7 +4724,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B16" s="20" t="n">
         <v>11</v>
@@ -5521,7 +4735,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B17" s="20" t="n">
         <v>12</v>
@@ -5532,7 +4746,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B18" s="20" t="n">
         <v>13</v>
@@ -5543,7 +4757,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B19" s="20" t="n">
         <v>14</v>
@@ -5554,288 +4768,288 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>222</v>
+        <v>193</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>226</v>
+        <v>197</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5862,89 +5076,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1446808510638"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3702127659574"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.4553191489362"/>
-    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.2340425531915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6723404255319"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8936170212766"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2808510638298"/>
+    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="11.4851063829787"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.4595744680851"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="A1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>254</v>
+      <c r="A2" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd")</f>
-        <v>2020-08-25</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+        <v>2020-08-26</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/config/default/forms/app/contact_follow_up.xlsx
+++ b/config/default/forms/app/contact_follow_up.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\HTS_Nakuru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF597ED-CA36-4CAA-9C40-DF65A48E12D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -24,611 +40,609 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media::image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./source = 'user'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db:patient_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../inputs/contact/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &lt; today()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing date cannot be in the future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one tracing_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow_up_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[&lt;span style='background-color:#F0F4FD; border:1px solid #007AC0; padding: 0.5em; border-radius: 4px; text-decoration:none; display: block; margin-left: auto; margin-right: auto; width: 40%; text-align: center;'&gt;&lt;i class="fa fa-phone" aria-hidden="true"&gt;&lt;/i&gt;&amp;nbsp;Call ${name}&lt;/span&gt;](tel://${phone})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${follow_up_type}='phone' and ${phone}!=''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${name} does not have a registered phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${follow_up_type}='phone' and ${phone}=''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one contact_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one reasons_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonNotContactedOnPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why was phone contact not successful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_status}=”notReached” and ${follow_up_type}=”phone”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonNotContactedOnPhoneSpecify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify why  phone contact not successful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${reasonNotContactedOnPhone}=”other”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one reasons_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonNotReachedPhysically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why was physical contacting not successful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_status}=”notReached” and ${follow_up_type}=”physical”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonNotReachedPhysicallySpecify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify why physical contacting not successful?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${reasonNotReachedPhysically}=”other”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonUncontacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${reasonNotReachedPhysically} !=’’, ${reasonNotReachedPhysically}, ${reasonNotContactedOnPhone})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasonUncontactedOther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${reasonNotContactedOnPhoneSpecify} !=’’, ${reasonNotContactedOnPhoneSpecify}, ${reasonNotReachedPhysicallySpecify})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facility_linked_to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility linked to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_status} = 'contactedAndLinked'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">booking_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_status} = 'contactedNotLinked'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &gt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking date cannot be in the past</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique_patient_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Patient No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Be sure you submit to complete this action._</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_household_details_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_household_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${place_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_assessment_findings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Contact type_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physical_tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/follow_up_type, 'physical')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone_tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/follow_up_type, 'phone’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_test_1_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Status_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactedAndLinked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacted and on ART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/contact_status, 'contactedAndLinked')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cintactedNotLinked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/contact_status, 'contactedNotLinked')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voluntaryExit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not contacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/contact_status, 'notReached')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_hts_strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Reason not contacted (Phone)_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationNotAvailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No locator information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotContactedOnPhone, 'no_locator_information')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrongLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorrect locator information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotContactedOnPhone, 'incorrect_location')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">callsNotGoingThrough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calls not going through</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotContactedOnPhone, 'calls_not_going_through')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patientDied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotContactedOnPhone, 'died')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotContactedOnPhone, 'other')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notcontactedphysicaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**_Reason not contacted (Physical)_**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No locator information,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'no_locator_information’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incorrect_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'incorrect_location')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'migrated')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notFoundAtHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not found at home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'not_found_at_home')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'died')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../../group_follow_up/reasonNotReachedPhysically, 'other')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_followup_contacted_linked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow Up Tasks &lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${contact_status}=”contactedAndLinked”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_followup_note_positive</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>db:patient_contact</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>../inputs/source</t>
+  </si>
+  <si>
+    <t>../inputs/source_id</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>place_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>encounter_date</t>
+  </si>
+  <si>
+    <t>Date of trace</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>. &lt; today()</t>
+  </si>
+  <si>
+    <t>Tracing date cannot be in the future</t>
+  </si>
+  <si>
+    <t>group_follow_up</t>
+  </si>
+  <si>
+    <t>Tracing Details</t>
+  </si>
+  <si>
+    <t>select_one tracing_type</t>
+  </si>
+  <si>
+    <t>follow_up_type</t>
+  </si>
+  <si>
+    <t>Tracing Type</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>call_button</t>
+  </si>
+  <si>
+    <t>[&lt;span style='background-color:#F0F4FD; border:1px solid #007AC0; padding: 0.5em; border-radius: 4px; text-decoration:none; display: block; margin-left: auto; margin-right: auto; width: 40%; text-align: center;'&gt;&lt;i class="fa fa-phone" aria-hidden="true"&gt;&lt;/i&gt;&amp;nbsp;Call ${name}&lt;/span&gt;](tel://${phone})</t>
+  </si>
+  <si>
+    <t>${follow_up_type}='phone' and ${phone}!=''</t>
+  </si>
+  <si>
+    <t>no_phone</t>
+  </si>
+  <si>
+    <t>${follow_up_type}='phone' and ${phone}=''</t>
+  </si>
+  <si>
+    <t>select_one contact_status</t>
+  </si>
+  <si>
+    <t>contact_status</t>
+  </si>
+  <si>
+    <t>Tracing Outcome</t>
+  </si>
+  <si>
+    <t>select_one reasons_phone</t>
+  </si>
+  <si>
+    <t>reasonNotContactedOnPhone</t>
+  </si>
+  <si>
+    <t>Why was phone contact not successful?</t>
+  </si>
+  <si>
+    <t>${contact_status}=”notReached” and ${follow_up_type}=”phone”</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>reasonNotContactedOnPhoneSpecify</t>
+  </si>
+  <si>
+    <t>Specify why  phone contact not successful?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>${reasonNotContactedOnPhone}=”other”</t>
+  </si>
+  <si>
+    <t>select_one reasons_physical</t>
+  </si>
+  <si>
+    <t>reasonNotReachedPhysically</t>
+  </si>
+  <si>
+    <t>Why was physical contacting not successful?</t>
+  </si>
+  <si>
+    <t>${contact_status}=”notReached” and ${follow_up_type}=”physical”</t>
+  </si>
+  <si>
+    <t>reasonNotReachedPhysicallySpecify</t>
+  </si>
+  <si>
+    <t>Specify why physical contacting not successful?</t>
+  </si>
+  <si>
+    <t>${reasonNotReachedPhysically}=”other”</t>
+  </si>
+  <si>
+    <t>reasonUncontacted</t>
+  </si>
+  <si>
+    <t>if(${reasonNotReachedPhysically} !=’’, ${reasonNotReachedPhysically}, ${reasonNotContactedOnPhone})</t>
+  </si>
+  <si>
+    <t>reasonUncontactedOther</t>
+  </si>
+  <si>
+    <t>if(${reasonNotContactedOnPhoneSpecify} !=’’, ${reasonNotContactedOnPhoneSpecify}, ${reasonNotReachedPhysicallySpecify})</t>
+  </si>
+  <si>
+    <t>facility_linked_to</t>
+  </si>
+  <si>
+    <t>Facility linked to</t>
+  </si>
+  <si>
+    <t>${contact_status} = 'contactedAndLinked'</t>
+  </si>
+  <si>
+    <t>booking_date</t>
+  </si>
+  <si>
+    <t>Booking Date</t>
+  </si>
+  <si>
+    <t>${contact_status} = 'contactedNotLinked'</t>
+  </si>
+  <si>
+    <t>floor(decimal-date-time(.)) &gt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
+  </si>
+  <si>
+    <t>Booking date cannot be in the past</t>
+  </si>
+  <si>
+    <t>unique_patient_number</t>
+  </si>
+  <si>
+    <t>Unique Patient No.</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>group_review</t>
+  </si>
+  <si>
+    <t>Summary page</t>
+  </si>
+  <si>
+    <t>field-list summary</t>
+  </si>
+  <si>
+    <t>n_submit</t>
+  </si>
+  <si>
+    <t>_Be sure you submit to complete this action._</t>
+  </si>
+  <si>
+    <t>n_household_details_title</t>
+  </si>
+  <si>
+    <t>Client details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
+  </si>
+  <si>
+    <t>n_household_details</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:center;"&gt;${place_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>n_assessment_findings</t>
+  </si>
+  <si>
+    <t>Assessment findings&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>**_Contact type_**</t>
+  </si>
+  <si>
+    <t>physical_tracing</t>
+  </si>
+  <si>
+    <t>Physical tracing</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/follow_up_type, 'physical')</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>phone_tracing</t>
+  </si>
+  <si>
+    <t>Phone tracing</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/follow_up_type, 'phone’)</t>
+  </si>
+  <si>
+    <t>n_test_1_results</t>
+  </si>
+  <si>
+    <t>**_Status_**</t>
+  </si>
+  <si>
+    <t>contactedAndLinked</t>
+  </si>
+  <si>
+    <t>Contacted and on ART</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/contact_status, 'contactedAndLinked')</t>
+  </si>
+  <si>
+    <t>cintactedNotLinked</t>
+  </si>
+  <si>
+    <t>Contacted</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/contact_status, 'contactedNotLinked')</t>
+  </si>
+  <si>
+    <t>voluntaryExit</t>
+  </si>
+  <si>
+    <t>Not contacted</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/contact_status, 'notReached')</t>
+  </si>
+  <si>
+    <t>n_hts_strategy</t>
+  </si>
+  <si>
+    <t>**_Reason not contacted (Phone)_**</t>
+  </si>
+  <si>
+    <t>locationNotAvailable</t>
+  </si>
+  <si>
+    <t>No locator information</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotContactedOnPhone, 'no_locator_information')</t>
+  </si>
+  <si>
+    <t>wrongLocation</t>
+  </si>
+  <si>
+    <t>Incorrect locator information</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotContactedOnPhone, 'incorrect_location')</t>
+  </si>
+  <si>
+    <t>callsNotGoingThrough</t>
+  </si>
+  <si>
+    <t>Calls not going through</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotContactedOnPhone, 'calls_not_going_through')</t>
+  </si>
+  <si>
+    <t>patientDied</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotContactedOnPhone, 'died')</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotContactedOnPhone, 'other')</t>
+  </si>
+  <si>
+    <t>notcontactedphysicaly</t>
+  </si>
+  <si>
+    <t>**_Reason not contacted (Physical)_**</t>
+  </si>
+  <si>
+    <t>noLocation</t>
+  </si>
+  <si>
+    <t>No locator information,</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'no_locator_information’)</t>
+  </si>
+  <si>
+    <t>incorrect_location</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'incorrect_location')</t>
+  </si>
+  <si>
+    <t>Migrated</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'migrated')</t>
+  </si>
+  <si>
+    <t>notFoundAtHome</t>
+  </si>
+  <si>
+    <t>Not found at home</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'not_found_at_home')</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'died')</t>
+  </si>
+  <si>
+    <t>selected(../../group_follow_up/reasonNotReachedPhysically, 'other')</t>
+  </si>
+  <si>
+    <t>r_followup_contacted_linked</t>
+  </si>
+  <si>
+    <t>Follow Up Tasks &lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>${contact_status}=”contactedAndLinked”</t>
+  </si>
+  <si>
+    <t>h1 green</t>
+  </si>
+  <si>
+    <t>r_followup_note_positive</t>
   </si>
   <si>
     <t xml:space="preserve">Please remember to fill referral and linkage form after saving this form </t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../../group_follow_up/contact_status, 'contactedAndLinked’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1065_yes_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_1066_no_99DCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>selected(../../group_follow_up/contact_status, 'contactedAndLinked’)</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>_1065_yes_99DCT</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>_1066_no_99DCT</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve"> tracing_type</t>
   </si>
   <si>
-    <t xml:space="preserve">physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacted and already on ART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactedNotLinked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notReached</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasons_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_locator_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calls_not_going_through</t>
-  </si>
-  <si>
-    <t xml:space="preserve">died</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasons_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">migrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not_found_at_home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Tracing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Contacted and already on ART</t>
+  </si>
+  <si>
+    <t>contactedNotLinked</t>
+  </si>
+  <si>
+    <t>notReached</t>
+  </si>
+  <si>
+    <t>reasons_phone</t>
+  </si>
+  <si>
+    <t>no_locator_information</t>
+  </si>
+  <si>
+    <t>calls_not_going_through</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>reasons_physical</t>
+  </si>
+  <si>
+    <t>migrated</t>
+  </si>
+  <si>
+    <t>not_found_at_home</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Contact Tracing</t>
+  </si>
+  <si>
+    <t>contact_follow_up</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;span style="color:red"&gt;${name} does not have a registered phone number&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -637,22 +651,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -705,28 +704,24 @@
       <sz val="11"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -774,14 +769,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
       </left>
@@ -797,651 +792,1149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1500,45 +1993,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF4C4C4C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AL65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.3163265306123"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="91.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.3673469387755"/>
-    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="36.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="17.3673469387755"/>
+    <col min="1" max="1" width="34.53125"/>
+    <col min="2" max="2" width="41.59765625"/>
+    <col min="3" max="3" width="59.9296875"/>
+    <col min="4" max="4" width="17.33203125"/>
+    <col min="5" max="5" width="72.265625"/>
+    <col min="6" max="6" width="21.265625"/>
+    <col min="7" max="7" width="47.3984375"/>
+    <col min="8" max="8" width="40.33203125"/>
+    <col min="9" max="9" width="91.06640625"/>
+    <col min="10" max="10" width="17.33203125"/>
+    <col min="11" max="11" width="30.796875"/>
+    <col min="12" max="12" width="17.33203125"/>
+    <col min="13" max="25" width="36.53125"/>
+    <col min="26" max="1025" width="17.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" ht="13.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +2391,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:38" ht="13.5">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +2428,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:38" ht="13.5">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +2463,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:38" ht="13.5">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1696,7 +2496,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:38" ht="13.5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +2529,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:38" ht="13.5">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1764,7 +2564,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:38" ht="13.5">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +2597,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:38" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1843,7 +2643,7 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:38" ht="13.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1876,7 +2676,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:38" ht="13.5">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +2709,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:38" ht="13.5">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1942,7 +2742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:38" ht="13.5">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1971,7 +2771,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:38" ht="13.5">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2800,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:38" ht="13.5">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -2029,7 +2829,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:38" ht="13.5">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -2058,7 +2858,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:38" ht="13.5">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -2087,7 +2887,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:25" ht="13.5">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2122,7 +2922,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:25" ht="13.5">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2957,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:25" ht="13.5">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -2192,7 +2992,7 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:25" ht="13.5">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -2227,7 +3027,7 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:25" ht="13.5">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -2266,7 +3066,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:25" ht="13.5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2293,7 +3093,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:25" ht="13.5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2320,7 +3120,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:25" ht="14.25">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +3155,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:25" ht="13.5">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
@@ -2390,7 +3190,7 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:25" ht="15.4">
       <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
@@ -2417,7 +3217,7 @@
       <c r="Q26" s="16"/>
       <c r="U26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:25" ht="15.4">
       <c r="A27" s="12" t="s">
         <v>55</v>
       </c>
@@ -2425,11 +3225,11 @@
         <v>59</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -2444,15 +3244,15 @@
       <c r="Q27" s="16"/>
       <c r="U27" s="16"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:25" ht="13.5">
       <c r="A28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>47</v>
@@ -2479,21 +3279,21 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:25" ht="13.5">
       <c r="A29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2516,21 +3316,21 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:25" ht="13.5">
       <c r="A30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="4"/>
@@ -2553,21 +3353,21 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:25" ht="13.5">
       <c r="A31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2590,21 +3390,21 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:25" ht="13.5">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="4"/>
@@ -2627,12 +3427,12 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" ht="13.5">
       <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>37</v>
@@ -2645,7 +3445,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2664,12 +3464,12 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:25" ht="27">
       <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>37</v>
@@ -2682,7 +3482,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2701,21 +3501,21 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" ht="15.4">
       <c r="A35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -2730,28 +3530,28 @@
       <c r="Q35" s="16"/>
       <c r="U35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2760,21 +3560,21 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:25" ht="15.4">
       <c r="A37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -2789,18 +3589,18 @@
       <c r="Q37" s="16"/>
       <c r="U37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:25" ht="13.5">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="9"/>
@@ -2824,7 +3624,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" ht="13.5">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2851,7 +3651,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" ht="13.5">
       <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +3680,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" ht="13.5">
       <c r="A41" s="4"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2907,20 +3707,20 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" ht="13.5">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2942,15 +3742,15 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:25" ht="13.5">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2975,20 +3775,20 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" ht="13.5">
       <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -3010,15 +3810,15 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:25" ht="13.5">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3043,20 +3843,20 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" ht="13.5">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -3078,15 +3878,15 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:25" ht="13.5">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3111,22 +3911,22 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="13.5">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3148,22 +3948,22 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:25" ht="17.45" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3185,7 +3985,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:25" ht="17.45" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="22"/>
@@ -3212,15 +4012,15 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:25" ht="13.5">
       <c r="A52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="4"/>
@@ -3245,22 +4045,22 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:25" ht="13.5">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -3282,22 +4082,22 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:25" ht="13.5">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -3319,22 +4119,22 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:25" ht="13.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -3356,19 +4156,19 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:25" ht="13.5">
       <c r="A56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -3391,22 +4191,22 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:25" ht="27">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3428,22 +4228,22 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:25" ht="13.5">
       <c r="A58" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3465,22 +4265,22 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:25" ht="27">
       <c r="A59" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -3502,22 +4302,22 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:25" ht="13.5">
       <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>142</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -3539,22 +4339,22 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:25" ht="13.5">
       <c r="A61" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3576,7 +4376,7 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:25" ht="13.5">
       <c r="A62" s="4"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
@@ -3603,19 +4403,19 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:25" ht="13.5">
       <c r="A63" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -3638,22 +4438,22 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:25" ht="27">
       <c r="A64" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3675,22 +4475,22 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:25" ht="13.5">
       <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3712,22 +4512,22 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:25" ht="13.5">
       <c r="A66" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3749,22 +4549,22 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:25" ht="27">
       <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3786,22 +4586,22 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:25" ht="13.5">
       <c r="A68" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3823,19 +4623,19 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:25" ht="13.5">
       <c r="A69" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3858,22 +4658,22 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
     </row>
-    <row r="70" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
@@ -3895,19 +4695,19 @@
       <c r="X70" s="24"/>
       <c r="Y70" s="24"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B71" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>166</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
@@ -3930,7 +4730,7 @@
       <c r="X71" s="27"/>
       <c r="Y71" s="27"/>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:25" ht="13.5">
       <c r="A72" s="4" t="s">
         <v>35</v>
       </c>
@@ -3959,623 +4759,580 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" priority="2" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="0"/>
+    <cfRule type="notContainsText" dxfId="115" priority="3" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" priority="6" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="7" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="0"/>
+    <cfRule type="notContainsText" dxfId="110" priority="8" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" priority="9" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="109" priority="9" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="2"/>
+    <cfRule type="notContainsText" dxfId="107" priority="11" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="105" priority="13" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I29,I25">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($I25 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29,C25">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29,B25">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $B25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" dxfId="101" priority="17" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:H29,H25">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(NOT($G25 = ""), $H25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28,A25">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="98" priority="20" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="97" priority="21">
+      <formula>AND($I30 = "", $A30 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="96" priority="22">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="95" priority="23">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="94" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($I30 = "", $A30 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="93" priority="25">
+      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="91" priority="27">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="90" priority="28">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="89" priority="29" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="88" priority="30">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="87" priority="31">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="86" priority="32">
+      <formula>AND($I38 = "", $A38 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="85" priority="33">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="84" priority="34">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" dxfId="83" priority="35" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="82" priority="36">
+      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:Y23">
+    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:Y23">
+    <cfRule type="cellIs" dxfId="80" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND($I38 = "", $A38 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+  <conditionalFormatting sqref="A21:A23">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:Y23">
-    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:Y23">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+  <conditionalFormatting sqref="A72">
+    <cfRule type="containsText" dxfId="78" priority="40" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" dxfId="77" priority="41">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="expression" dxfId="76" priority="42">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="75" priority="43" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A23">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="13"/>
+    <cfRule type="expression" dxfId="73" priority="45">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" dxfId="72" priority="46">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="71" priority="47">
+      <formula>AND($I31 = "", $A31 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="70" priority="48">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $C31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="69" priority="49">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="67" priority="51">
+      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="66" priority="52">
+      <formula>AND($I32 = "", $A32 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="65" priority="53">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="64" priority="54">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="62" priority="56">
+      <formula>AND(NOT($G32 = ""), $H32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="60" priority="58">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="57" priority="61">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="56" priority="62">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="54" priority="64">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="53" priority="65">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="51" priority="67">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="50" priority="68">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="containsText" dxfId="49" priority="69" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="48" priority="70">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="47" priority="71">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="46" priority="72" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="45" priority="73">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="44" priority="74">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="43" priority="75" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>AND($I31 = "", $A31 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $C31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="containsText" dxfId="42" priority="76" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="expression" dxfId="41" priority="77">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="expression" dxfId="40" priority="78">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="cellIs" dxfId="39" priority="79" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="38" priority="80">
+      <formula>AND($I54 = "", $A54 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="37" priority="81">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="36" priority="82">
+      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="35" priority="83" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND($I32 = "", $A32 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $C32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="34" priority="84">
+      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="expression" dxfId="33" priority="85">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:Y54">
+    <cfRule type="expression" dxfId="32" priority="86">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="containsText" dxfId="31" priority="87" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="30" priority="88">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="29" priority="89">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="cellIs" dxfId="28" priority="90" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="expression" dxfId="27" priority="91">
+      <formula>AND($I55 = "", $A55 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="26" priority="92">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="25" priority="93">
+      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="24" priority="94" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>AND(NOT($G32 = ""), $H32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="expression" dxfId="23" priority="95">
+      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="22" priority="96">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:Y55">
+    <cfRule type="expression" dxfId="21" priority="97">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="20" priority="98">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$984, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" priority="99">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$975, "begin group") = COUNTIF($A$1:$A$984, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="19" priority="100">
+      <formula>AND($I33 = "", $A33 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="18" priority="101">
+      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="17" priority="102" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="16" priority="103">
+      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="containsText" dxfId="15" priority="104" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="14" priority="105">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="13" priority="106">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="12" priority="107" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="11" priority="108">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="10" priority="109">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="9" priority="110">
+      <formula>AND($I33 = "", $A33 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="8" priority="111">
+      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="7" priority="112" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="6" priority="113">
+      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" dxfId="5" priority="114" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="4" priority="115">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="3" priority="116">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="containsText" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>AND($I54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:Y54">
-    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:Y55">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$984, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$975, "begin group") = COUNTIF($A$1:$A$984, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND($I33 = "", $A33 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="containsText" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="1" priority="118">
       <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="0" priority="119">
       <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND($I33 = "", $A33 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D7 D9:D25 D28:D34 D38:D41 D43:D69 D72" type="list">
-      <formula1>"yes,no"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D36" type="list">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D7 D9:D25 D28:D34 D38:D41 D43:D69 D72 D36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="db:patient_contact"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1048539"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.3673469387755"/>
+    <col min="1" max="1" width="31.46484375"/>
+    <col min="2" max="2" width="38.265625"/>
+    <col min="3" max="3" width="55"/>
+    <col min="4" max="1025" width="17.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -4587,36 +5344,36 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="13.5">
+      <c r="A3" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>31</v>
@@ -4625,266 +5382,251 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5">
+      <c r="A10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>179</v>
-      </c>
       <c r="C10" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" ht="13.5">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="C12" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="C16" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="13.5">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="C21" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>185</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>184</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="C23" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="1048539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1048539" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="17.3673469387755"/>
+    <col min="1" max="1" width="33.53125"/>
+    <col min="2" max="2" width="30.265625"/>
+    <col min="3" max="3" width="28.1328125"/>
+    <col min="4" max="1025" width="17.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="13.5">
+      <c r="A2" s="22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="34">
+        <f ca="1">NOW()</f>
+        <v>44335.639600115741</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="34" t="n">
-        <f aca="true">NOW()</f>
-        <v>44280.4000101646</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>197</v>
-      </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>